--- a/macropad3/BOM.xlsx
+++ b/macropad3/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Github\macropad3\macropad3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396C0F04-9BEC-4C24-AFB2-276DA3D0F066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81DDD73-CF00-46F2-AB3B-02630269135D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="840" windowWidth="24840" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Purchase link</t>
   </si>
   <si>
-    <t>screws and poles</t>
-  </si>
-  <si>
     <t>PCB</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>2u stabs</t>
+  </si>
+  <si>
+    <t>screws and poles (8mm)</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,13 +1139,13 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>27.3</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -1197,7 +1197,7 @@
         <v>5.9</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -1264,13 +1264,13 @@
         <v>3.75</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1316,13 +1316,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
